--- a/RawMaterials/data/JournalArticlesAlinaHasLookedAtToDate.xlsx
+++ b/RawMaterials/data/JournalArticlesAlinaHasLookedAtToDate.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\RawMaterials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00381BA-799B-4CDC-8CDC-AE53D280B49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1EF90A-2ADE-443A-BAE7-8D56464043D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{A8763C87-DFF9-4A08-964B-F5B5ED8150ED}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="1" activeTab="1" xr2:uid="{A8763C87-DFF9-4A08-964B-F5B5ED8150ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="ForAlina'sReference" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="272">
   <si>
     <t>To document everything I looked at for LA project</t>
   </si>
@@ -260,9 +262,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Effects of provenance, years, and planting location on bud burst of Douglas-fir. </t>
-  </si>
-  <si>
-    <t>YES?? Reach out to XXXX</t>
   </si>
   <si>
     <t>EA FAGUSY Petkova et al 2017</t>
@@ -789,6 +788,105 @@
   </si>
   <si>
     <t>Journal articles Alina has looked at to date</t>
+  </si>
+  <si>
+    <t>NA POPUBA Soola...lly etal 2013</t>
+  </si>
+  <si>
+    <t>Soolanayakanahally RY, Guy RD, Silim SN, Song M.</t>
+  </si>
+  <si>
+    <t>Timing of photoperiodic competency causes phenological mismatch in balsam poplar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Populus balsamifera </t>
+  </si>
+  <si>
+    <t>rob</t>
+  </si>
+  <si>
+    <t>need to get the location of the provenances</t>
+  </si>
+  <si>
+    <t>Panchen et al. 2014</t>
+  </si>
+  <si>
+    <t>Zoe A. Panchen,Richard B. Primack,Birgit Nordt,Elizabeth R. Ellwood,Albert-Dieter Stevens,Susanne S. Renner,Charles G. Willis,Robert Fahey,Alan Whittemore,Yanjun Du,Charles C. Davis</t>
+  </si>
+  <si>
+    <t>Leaf out times of temperate woody plants are related to phylogeny, deciduousness, growth habit and wood anatomy</t>
+  </si>
+  <si>
+    <t>not a provenance study</t>
+  </si>
+  <si>
+    <t>NA POPUBA Soola...lly etal 2015</t>
+  </si>
+  <si>
+    <t>Soolanayakanahally, R. Y., Guy, R. D., Street, N. R., Robinson, K. M., Silim, S. N., Albrectsen, B. R., &amp; Jansson, S.</t>
+  </si>
+  <si>
+    <t>Comparative physiology of allopatric Populus species: geographic clines in photosynthesis, height growth, and carbon isotope discrimination in common gardens</t>
+  </si>
+  <si>
+    <t>hmmm looks like there is no bb doy</t>
+  </si>
+  <si>
+    <t>EA POPUTR Soola...lly etal 2015</t>
+  </si>
+  <si>
+    <t>Populus tremula</t>
+  </si>
+  <si>
+    <t>NA CORNNU Kier et al. 2011</t>
+  </si>
+  <si>
+    <t>Karolyn R. Keir, Jordan B. Bemmels and Sally N. Aitken</t>
+  </si>
+  <si>
+    <t>Low genetic diversity, moderate local adaptation, and phylogeographic insights in Cornus nuttallii (Cornaceae)</t>
+  </si>
+  <si>
+    <t>Cornus nuttallii </t>
+  </si>
+  <si>
+    <t>Sally</t>
+  </si>
+  <si>
+    <t>no doy</t>
+  </si>
+  <si>
+    <t>NA QUERGA Huebert 2009</t>
+  </si>
+  <si>
+    <t>Huebert, Colin A.</t>
+  </si>
+  <si>
+    <t>The ecological and conservation genetics of Garry oak (Quercus garryana Dougl. ex Hook))</t>
+  </si>
+  <si>
+    <t>Quercus garryana</t>
+  </si>
+  <si>
+    <t>NA BETUPA Hawkins &amp; Dhar 2012</t>
+  </si>
+  <si>
+    <t>Christopher D.B. Hawkins &amp; Amalesh Dhar</t>
+  </si>
+  <si>
+    <t>Spring bud phenology of 18 Betula papyrifera populations in British Columbia</t>
+  </si>
+  <si>
+    <t>1998/1999</t>
+  </si>
+  <si>
+    <t>Betula papyrifera</t>
+  </si>
+  <si>
+    <t>Phenotypical traits and variability of six European beech (Fagus sylvatica L.) provenances on a test site in Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Mirko Liesebach</t>
   </si>
 </sst>
 </file>
@@ -854,7 +952,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -900,6 +998,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,7 +1101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1070,6 +1180,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE5B864-EFCC-4037-984E-4A9021278338}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -1400,7 +1512,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -1443,7 +1555,7 @@
         <v>12</v>
       </c>
       <c r="N5" s="45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
@@ -1925,34 +2037,34 @@
         <v>11</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="D16" s="20" t="s">
         <v>77</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>78</v>
       </c>
       <c r="E16" s="19">
         <v>2017</v>
       </c>
       <c r="F16" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>80</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>19</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L16" s="19" t="s">
         <v>62</v>
@@ -1972,13 +2084,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="D17" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>90</v>
       </c>
       <c r="E17" s="19">
         <v>2021</v>
@@ -1999,7 +2111,7 @@
         <v>19</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L17" s="19" t="s">
         <v>62</v>
@@ -2019,19 +2131,19 @@
         <v>13</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="D18" s="20" t="s">
         <v>93</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>94</v>
       </c>
       <c r="E18" s="19">
         <v>1993</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>16</v>
@@ -2046,10 +2158,10 @@
         <v>19</v>
       </c>
       <c r="K18" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>97</v>
       </c>
       <c r="M18" s="21" t="s">
         <v>22</v>
@@ -2066,13 +2178,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="D19" s="26" t="s">
         <v>99</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>100</v>
       </c>
       <c r="E19" s="19">
         <v>2008</v>
@@ -2087,16 +2199,16 @@
         <v>17</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J19" s="19" t="s">
         <v>32</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M19" s="21" t="s">
         <v>22</v>
@@ -2113,13 +2225,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="D20" s="26" t="s">
         <v>104</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>105</v>
       </c>
       <c r="E20" s="19">
         <v>1999</v>
@@ -2143,7 +2255,7 @@
         <v>71</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M20" s="21" t="s">
         <v>22</v>
@@ -2160,19 +2272,19 @@
         <v>16</v>
       </c>
       <c r="B21" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="D21" s="26" t="s">
         <v>107</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>108</v>
       </c>
       <c r="E21" s="19">
         <v>2011</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>17</v>
@@ -2181,13 +2293,13 @@
         <v>17</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>19</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L21" s="19" t="s">
         <v>62</v>
@@ -2207,19 +2319,19 @@
         <v>17</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="D22" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>113</v>
       </c>
       <c r="E22" s="19">
         <v>2021</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>16</v>
@@ -2234,7 +2346,7 @@
         <v>32</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L22" s="19" t="s">
         <v>62</v>
@@ -2254,13 +2366,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="D23" s="20" t="s">
         <v>117</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>118</v>
       </c>
       <c r="E23" s="19">
         <v>2020</v>
@@ -2281,7 +2393,7 @@
         <v>32</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L23" s="19" t="s">
         <v>62</v>
@@ -2301,19 +2413,19 @@
         <v>19</v>
       </c>
       <c r="B24" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="D24" s="24" t="s">
         <v>84</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>85</v>
       </c>
       <c r="E24" s="23">
         <v>2012</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G24" s="23" t="s">
         <v>17</v>
@@ -2322,22 +2434,22 @@
         <v>17</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J24" s="23" t="s">
         <v>19</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L24" s="23" t="s">
         <v>62</v>
       </c>
       <c r="M24" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N24" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O24" s="23"/>
       <c r="P24" s="19"/>
@@ -2371,10 +2483,10 @@
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
       <c r="M25" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="N25" s="23" t="s">
         <v>231</v>
-      </c>
-      <c r="N25" s="23" t="s">
-        <v>232</v>
       </c>
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
@@ -2387,13 +2499,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E26" s="19">
         <v>2007</v>
@@ -2410,10 +2522,10 @@
         <v>62</v>
       </c>
       <c r="M26" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
@@ -2426,13 +2538,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>121</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>122</v>
       </c>
       <c r="E27" s="23">
         <v>1996</v>
@@ -2450,7 +2562,7 @@
         <v>39</v>
       </c>
       <c r="N27" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O27" s="23"/>
       <c r="P27" s="23"/>
@@ -2463,13 +2575,13 @@
         <v>23</v>
       </c>
       <c r="B28" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" s="24" t="s">
         <v>124</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>125</v>
       </c>
       <c r="E28" s="23">
         <v>2018</v>
@@ -2498,13 +2610,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E29" s="23">
         <v>2019</v>
@@ -2522,7 +2634,7 @@
         <v>39</v>
       </c>
       <c r="N29" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O29" s="23"/>
       <c r="P29" s="23"/>
@@ -2571,7 +2683,7 @@
         <v>39</v>
       </c>
       <c r="N30" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O30" s="23"/>
       <c r="P30" s="23"/>
@@ -2584,13 +2696,13 @@
         <v>26</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="24" t="s">
         <v>188</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>189</v>
       </c>
       <c r="E31" s="23">
         <v>1995</v>
@@ -2610,7 +2722,7 @@
         <v>39</v>
       </c>
       <c r="N31" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O31" s="23"/>
       <c r="P31" s="23"/>
@@ -2623,13 +2735,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E32" s="23">
         <v>2014</v>
@@ -2649,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="N32" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
@@ -2662,13 +2774,13 @@
         <v>28</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E33" s="23">
         <v>2013</v>
@@ -2688,7 +2800,7 @@
         <v>39</v>
       </c>
       <c r="N33" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O33" s="31"/>
       <c r="P33" s="31"/>
@@ -2701,13 +2813,13 @@
         <v>29</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E34" s="19">
         <v>2017</v>
@@ -2725,7 +2837,7 @@
         <v>39</v>
       </c>
       <c r="N34" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O34" s="32"/>
       <c r="P34" s="32"/>
@@ -2738,13 +2850,13 @@
         <v>30</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="20" t="s">
         <v>182</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>183</v>
       </c>
       <c r="E35" s="19">
         <v>2006</v>
@@ -2764,7 +2876,7 @@
         <v>39</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
@@ -2777,13 +2889,13 @@
         <v>31</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C36" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>180</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>181</v>
       </c>
       <c r="E36" s="19">
         <v>2014</v>
@@ -2803,7 +2915,7 @@
         <v>39</v>
       </c>
       <c r="N36" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
@@ -2816,13 +2928,13 @@
         <v>32</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E37" s="19">
         <v>2015</v>
@@ -2842,7 +2954,7 @@
         <v>39</v>
       </c>
       <c r="N37" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O37" s="19"/>
       <c r="P37" s="19"/>
@@ -2855,13 +2967,13 @@
         <v>33</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E38" s="19">
         <v>2004</v>
@@ -2881,7 +2993,7 @@
         <v>39</v>
       </c>
       <c r="N38" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O38" s="19"/>
       <c r="P38" s="19"/>
@@ -2894,13 +3006,13 @@
         <v>34</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E39" s="19">
         <v>2016</v>
@@ -2920,7 +3032,7 @@
         <v>39</v>
       </c>
       <c r="N39" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
@@ -2933,13 +3045,13 @@
         <v>35</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E40" s="19">
         <v>2015</v>
@@ -2959,7 +3071,7 @@
         <v>39</v>
       </c>
       <c r="N40" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O40" s="19"/>
       <c r="P40" s="19"/>
@@ -2972,13 +3084,13 @@
         <v>36</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E41" s="19">
         <v>2017</v>
@@ -2998,7 +3110,7 @@
         <v>39</v>
       </c>
       <c r="N41" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O41" s="19"/>
       <c r="P41" s="19"/>
@@ -3011,13 +3123,13 @@
         <v>37</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E42" s="19">
         <v>2002</v>
@@ -3037,7 +3149,7 @@
         <v>39</v>
       </c>
       <c r="N42" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O42" s="19"/>
       <c r="P42" s="19"/>
@@ -3050,13 +3162,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E43" s="19">
         <v>1983</v>
@@ -3068,13 +3180,13 @@
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
       <c r="L43" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M43" s="29" t="s">
         <v>39</v>
       </c>
       <c r="N43" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O43" s="19"/>
       <c r="P43" s="19"/>
@@ -3087,13 +3199,13 @@
         <v>39</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E44" s="19">
         <v>1997</v>
@@ -3105,13 +3217,13 @@
       <c r="J44" s="19"/>
       <c r="K44" s="19"/>
       <c r="L44" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M44" s="29" t="s">
         <v>39</v>
       </c>
       <c r="N44" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O44" s="19"/>
       <c r="P44" s="19"/>
@@ -3124,13 +3236,13 @@
         <v>40</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E45" s="19">
         <v>1997</v>
@@ -3142,13 +3254,13 @@
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
       <c r="L45" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M45" s="29" t="s">
         <v>39</v>
       </c>
       <c r="N45" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O45" s="19"/>
       <c r="P45" s="19"/>
@@ -3161,13 +3273,13 @@
         <v>41</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E46" s="19">
         <v>2011</v>
@@ -3179,13 +3291,13 @@
       <c r="J46" s="19"/>
       <c r="K46" s="19"/>
       <c r="L46" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M46" s="29" t="s">
         <v>39</v>
       </c>
       <c r="N46" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O46" s="19"/>
       <c r="P46" s="19"/>
@@ -3198,13 +3310,13 @@
         <v>42</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C47" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" s="20" t="s">
         <v>194</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>195</v>
       </c>
       <c r="E47" s="19">
         <v>2006</v>
@@ -3216,13 +3328,13 @@
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
       <c r="L47" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M47" s="29" t="s">
         <v>39</v>
       </c>
       <c r="N47" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O47" s="19"/>
       <c r="P47" s="19"/>
@@ -3235,13 +3347,13 @@
         <v>43</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E48" s="19">
         <v>2009</v>
@@ -3255,13 +3367,13 @@
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
       <c r="L48" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M48" s="29" t="s">
         <v>39</v>
       </c>
       <c r="N48" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O48" s="19"/>
       <c r="P48" s="19"/>
@@ -3275,10 +3387,10 @@
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E49" s="19">
         <v>2009</v>
@@ -3298,7 +3410,7 @@
         <v>39</v>
       </c>
       <c r="N49" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O49" s="19"/>
       <c r="P49" s="19"/>
@@ -3312,10 +3424,10 @@
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E50" s="19">
         <v>2010</v>
@@ -3335,7 +3447,7 @@
         <v>39</v>
       </c>
       <c r="N50" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O50" s="19"/>
       <c r="P50" s="19"/>
@@ -3348,13 +3460,13 @@
         <v>46</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E51" s="19">
         <v>2007</v>
@@ -3374,7 +3486,7 @@
         <v>39</v>
       </c>
       <c r="N51" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O51" s="19"/>
       <c r="P51" s="19"/>
@@ -3387,13 +3499,13 @@
         <v>47</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C52" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="20" t="s">
         <v>222</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>223</v>
       </c>
       <c r="E52" s="19">
         <v>2020</v>
@@ -3413,7 +3525,7 @@
         <v>39</v>
       </c>
       <c r="N52" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O52" s="19"/>
       <c r="P52" s="19"/>
@@ -3426,13 +3538,13 @@
         <v>48</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E53" s="19">
         <v>2016</v>
@@ -3452,7 +3564,7 @@
         <v>39</v>
       </c>
       <c r="N53" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O53" s="19"/>
       <c r="P53" s="19"/>
@@ -3465,13 +3577,13 @@
         <v>49</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E54" s="19">
         <v>1999</v>
@@ -3491,7 +3603,7 @@
         <v>39</v>
       </c>
       <c r="N54" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O54" s="19"/>
       <c r="P54" s="19"/>
@@ -3504,13 +3616,13 @@
         <v>50</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E55" s="19">
         <v>2010</v>
@@ -3530,7 +3642,7 @@
         <v>39</v>
       </c>
       <c r="N55" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O55" s="19"/>
       <c r="P55" s="19"/>
@@ -3543,13 +3655,13 @@
         <v>51</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E56" s="37">
         <v>2019</v>
@@ -3567,7 +3679,7 @@
         <v>39</v>
       </c>
       <c r="N56" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O56" s="37"/>
       <c r="P56" s="37"/>
@@ -3582,10 +3694,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFEDDF9-A7E3-4B1E-8FC5-46B8D81A82AE}">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R11" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4081,7 +4193,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="4" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="57.9" x14ac:dyDescent="0.6">
@@ -4090,34 +4202,34 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="E17">
         <v>2017</v>
       </c>
       <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
         <v>79</v>
-      </c>
-      <c r="G17" t="s">
-        <v>80</v>
       </c>
       <c r="H17" t="s">
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L17" t="s">
         <v>62</v>
@@ -4132,19 +4244,19 @@
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="E18" s="3">
         <v>2012</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>17</v>
@@ -4153,19 +4265,19 @@
         <v>17</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>62</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="43.5" x14ac:dyDescent="0.6">
@@ -4174,13 +4286,13 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="E19">
         <v>2021</v>
@@ -4201,7 +4313,7 @@
         <v>19</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L19" t="s">
         <v>62</v>
@@ -4216,19 +4328,19 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
         <v>92</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="E20">
         <v>1993</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
         <v>16</v>
@@ -4243,10 +4355,10 @@
         <v>19</v>
       </c>
       <c r="K20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" t="s">
         <v>96</v>
-      </c>
-      <c r="L20" t="s">
-        <v>97</v>
       </c>
       <c r="M20" t="s">
         <v>22</v>
@@ -4258,13 +4370,13 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="E21">
         <v>2008</v>
@@ -4279,16 +4391,16 @@
         <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J21" t="s">
         <v>32</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M21" t="s">
         <v>22</v>
@@ -4300,13 +4412,13 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
         <v>103</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="E22">
         <v>1999</v>
@@ -4330,7 +4442,7 @@
         <v>71</v>
       </c>
       <c r="L22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M22" t="s">
         <v>22</v>
@@ -4342,19 +4454,19 @@
         <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
         <v>106</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="E23">
         <v>2011</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
@@ -4363,13 +4475,13 @@
         <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L23" t="s">
         <v>62</v>
@@ -4384,19 +4496,19 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="E24">
         <v>2021</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
@@ -4411,7 +4523,7 @@
         <v>32</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L24" t="s">
         <v>62</v>
@@ -4426,13 +4538,13 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
         <v>116</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="E25">
         <v>2020</v>
@@ -4453,7 +4565,7 @@
         <v>32</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L25" t="s">
         <v>62</v>
@@ -4468,11 +4580,11 @@
         <v>21</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E26" s="12">
         <v>1996</v>
@@ -4488,7 +4600,7 @@
         <v>39</v>
       </c>
       <c r="N26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -4497,11 +4609,11 @@
         <v>22</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" s="12">
         <v>2018</v>
@@ -4523,11 +4635,11 @@
         <v>23</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" s="12">
         <v>2019</v>
@@ -4543,7 +4655,7 @@
         <v>39</v>
       </c>
       <c r="N28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -4588,18 +4700,18 @@
         <v>39</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="E30">
         <v>1995</v>
@@ -4611,18 +4723,18 @@
         <v>39</v>
       </c>
       <c r="N30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E31">
         <v>2007</v>
@@ -4631,21 +4743,21 @@
         <v>62</v>
       </c>
       <c r="M31" t="s">
+        <v>129</v>
+      </c>
+      <c r="N31" t="s">
         <v>130</v>
-      </c>
-      <c r="N31" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E32" s="12">
         <v>2014</v>
@@ -4657,18 +4769,18 @@
         <v>39</v>
       </c>
       <c r="N32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="2:18" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E33">
         <v>2013</v>
@@ -4680,7 +4792,7 @@
         <v>39</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
@@ -4689,13 +4801,13 @@
     </row>
     <row r="34" spans="2:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E34">
         <v>2017</v>
@@ -4707,7 +4819,7 @@
         <v>39</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
@@ -4716,13 +4828,13 @@
     </row>
     <row r="35" spans="2:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="E35">
         <v>2006</v>
@@ -4734,18 +4846,18 @@
         <v>39</v>
       </c>
       <c r="N35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="2:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="E36">
         <v>2014</v>
@@ -4757,18 +4869,18 @@
         <v>39</v>
       </c>
       <c r="N36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="2:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E37">
         <v>2015</v>
@@ -4780,18 +4892,18 @@
         <v>39</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E38">
         <v>2004</v>
@@ -4803,18 +4915,18 @@
         <v>39</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="2:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E39">
         <v>2016</v>
@@ -4826,15 +4938,15 @@
         <v>39</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="2:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E40">
         <v>2015</v>
@@ -4846,18 +4958,18 @@
         <v>39</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="2:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E41">
         <v>2017</v>
@@ -4869,18 +4981,18 @@
         <v>39</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="2:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E42">
         <v>2002</v>
@@ -4892,18 +5004,18 @@
         <v>39</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="2:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E43">
         <v>2010</v>
@@ -4915,18 +5027,18 @@
         <v>39</v>
       </c>
       <c r="N43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="2:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E44">
         <v>2009</v>
@@ -4938,156 +5050,156 @@
         <v>39</v>
       </c>
       <c r="N44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="2:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E45">
         <v>1983</v>
       </c>
       <c r="L45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>39</v>
       </c>
       <c r="N45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="2:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E46">
         <v>1997</v>
       </c>
       <c r="L46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M46" t="s">
         <v>39</v>
       </c>
       <c r="N46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="2:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E47">
         <v>1997</v>
       </c>
       <c r="L47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M47" t="s">
         <v>39</v>
       </c>
       <c r="N47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="2:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E48">
         <v>2011</v>
       </c>
       <c r="L48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M48" t="s">
         <v>39</v>
       </c>
       <c r="N48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="E49">
         <v>2006</v>
       </c>
       <c r="L49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M49" t="s">
         <v>39</v>
       </c>
       <c r="N49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E50">
         <v>2009</v>
       </c>
       <c r="L50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M50" t="s">
         <v>39</v>
       </c>
       <c r="N50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E51">
         <v>2007</v>
@@ -5099,18 +5211,18 @@
         <v>39</v>
       </c>
       <c r="N51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C52" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="E52">
         <v>2020</v>
@@ -5122,18 +5234,18 @@
         <v>39</v>
       </c>
       <c r="N52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E53">
         <v>2016</v>
@@ -5145,18 +5257,18 @@
         <v>39</v>
       </c>
       <c r="N53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E54">
         <v>1999</v>
@@ -5168,18 +5280,18 @@
         <v>39</v>
       </c>
       <c r="N54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E55">
         <v>2010</v>
@@ -5191,18 +5303,18 @@
         <v>39</v>
       </c>
       <c r="N55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E56">
         <v>2019</v>
@@ -5214,7 +5326,267 @@
         <v>39</v>
       </c>
       <c r="N56" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E57" s="4">
+        <v>2013</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" t="s">
+        <v>245</v>
+      </c>
+      <c r="C58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" t="s">
+        <v>247</v>
+      </c>
+      <c r="E58">
+        <v>2014</v>
+      </c>
+      <c r="L58" t="s">
+        <v>243</v>
+      </c>
+      <c r="M58" t="s">
+        <v>39</v>
+      </c>
+      <c r="N58" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" t="s">
+        <v>250</v>
+      </c>
+      <c r="D59" t="s">
+        <v>251</v>
+      </c>
+      <c r="E59">
+        <v>2015</v>
+      </c>
+      <c r="F59">
+        <v>2007</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" t="s">
+        <v>26</v>
+      </c>
+      <c r="J59" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" t="s">
+        <v>242</v>
+      </c>
+      <c r="L59" t="s">
+        <v>243</v>
+      </c>
+      <c r="M59" t="s">
+        <v>39</v>
+      </c>
+      <c r="N59" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="C60" t="s">
+        <v>250</v>
+      </c>
+      <c r="D60" t="s">
+        <v>251</v>
+      </c>
+      <c r="E60">
+        <v>2015</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" t="s">
+        <v>254</v>
+      </c>
+      <c r="L60" t="s">
+        <v>243</v>
+      </c>
+      <c r="M60" t="s">
+        <v>39</v>
+      </c>
+      <c r="N60" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" t="s">
+        <v>255</v>
+      </c>
+      <c r="C61" t="s">
+        <v>256</v>
+      </c>
+      <c r="D61" t="s">
+        <v>257</v>
+      </c>
+      <c r="E61">
+        <v>2011</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" t="s">
+        <v>258</v>
+      </c>
+      <c r="L61" t="s">
+        <v>259</v>
+      </c>
+      <c r="M61" t="s">
+        <v>39</v>
+      </c>
+      <c r="N61" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" t="s">
+        <v>261</v>
+      </c>
+      <c r="C62" t="s">
+        <v>262</v>
+      </c>
+      <c r="D62" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62">
+        <v>2009</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" t="s">
+        <v>264</v>
+      </c>
+      <c r="L62" t="s">
+        <v>259</v>
+      </c>
+      <c r="M62" t="s">
+        <v>39</v>
+      </c>
+      <c r="N62" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="C63" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="D63" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="E63" s="47">
+        <v>2012</v>
+      </c>
+      <c r="F63" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="G63" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="L63" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="M63" s="47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64" t="s">
+        <v>271</v>
+      </c>
+      <c r="D64" t="s">
+        <v>270</v>
+      </c>
+      <c r="E64">
+        <v>2012</v>
       </c>
     </row>
   </sheetData>
@@ -5222,4 +5594,500 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DC13B0-FF14-4521-8E3B-0B7026A35034}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1">
+        <v>49</v>
+      </c>
+      <c r="B1">
+        <v>15</v>
+      </c>
+      <c r="C1">
+        <f>A1+B1/60</f>
+        <v>49.25</v>
+      </c>
+      <c r="E1">
+        <v>117</v>
+      </c>
+      <c r="F1">
+        <v>10</v>
+      </c>
+      <c r="G1">
+        <f>E1+F1/60</f>
+        <v>117.16666666666667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C22" si="0">A2+B2/60</f>
+        <v>49.633333333333333</v>
+      </c>
+      <c r="E2">
+        <v>116</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G22" si="1">E2+F2/60</f>
+        <v>116.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>50.06666666666667</v>
+      </c>
+      <c r="E3">
+        <v>117</v>
+      </c>
+      <c r="F3">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>117.38333333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>51.366666666666667</v>
+      </c>
+      <c r="E4">
+        <v>118</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>118.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>50.56666666666667</v>
+      </c>
+      <c r="E5">
+        <v>118</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>118.83333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>50.766666666666666</v>
+      </c>
+      <c r="E6">
+        <v>119</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>119.53333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>50.81666666666667</v>
+      </c>
+      <c r="E7">
+        <v>119</v>
+      </c>
+      <c r="F7">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>119.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>52.516666666666666</v>
+      </c>
+      <c r="E8">
+        <v>122</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>122.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>52.516666666666666</v>
+      </c>
+      <c r="E9">
+        <v>121</v>
+      </c>
+      <c r="F9">
+        <v>31</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>121.51666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>52.783333333333331</v>
+      </c>
+      <c r="E10">
+        <v>122</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>122.23333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>53.783333333333331</v>
+      </c>
+      <c r="E11">
+        <v>122</v>
+      </c>
+      <c r="F11">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>122.63333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>53.916666666666664</v>
+      </c>
+      <c r="E12">
+        <v>122</v>
+      </c>
+      <c r="F12">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>122.36666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>54.1</v>
+      </c>
+      <c r="E13">
+        <v>122</v>
+      </c>
+      <c r="F13">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>122.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>54.133333333333333</v>
+      </c>
+      <c r="E14">
+        <v>121</v>
+      </c>
+      <c r="F14">
+        <v>47</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>121.78333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>54.5</v>
+      </c>
+      <c r="E15">
+        <v>128</v>
+      </c>
+      <c r="F15">
+        <v>34</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>128.56666666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>54.7</v>
+      </c>
+      <c r="E16">
+        <v>128</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>128.26666666666668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>55.133333333333333</v>
+      </c>
+      <c r="E17">
+        <v>127</v>
+      </c>
+      <c r="F17">
+        <v>43</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>127.71666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>55.18333333333333</v>
+      </c>
+      <c r="E18">
+        <v>127</v>
+      </c>
+      <c r="F18">
+        <v>47</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>127.78333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>48.483333333333334</v>
+      </c>
+      <c r="D20">
+        <v>123.4</v>
+      </c>
+      <c r="E20">
+        <v>123</v>
+      </c>
+      <c r="F20">
+        <v>24</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>123.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>47</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>50.783333333333331</v>
+      </c>
+      <c r="D21">
+        <v>119.4</v>
+      </c>
+      <c r="E21">
+        <v>119</v>
+      </c>
+      <c r="F21">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>119.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>53.75</v>
+      </c>
+      <c r="D22">
+        <v>122.71666666666667</v>
+      </c>
+      <c r="E22">
+        <v>122</v>
+      </c>
+      <c r="F22">
+        <v>43</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>122.71666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RawMaterials/data/JournalArticlesAlinaHasLookedAtToDate.xlsx
+++ b/RawMaterials/data/JournalArticlesAlinaHasLookedAtToDate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\RawMaterials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1EF90A-2ADE-443A-BAE7-8D56464043D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B1E323-6563-49D8-88F2-FEA2ABD0C823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="1" activeTab="1" xr2:uid="{A8763C87-DFF9-4A08-964B-F5B5ED8150ED}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="280">
   <si>
     <t>To document everything I looked at for LA project</t>
   </si>
@@ -887,6 +886,30 @@
   </si>
   <si>
     <t>Mirko Liesebach</t>
+  </si>
+  <si>
+    <t>Continued Feb 4 2022</t>
+  </si>
+  <si>
+    <t>Range‐wide variation in local adaptation and phenotypic plasticity of fitness‐related traits in Fagus sylvatica and their implications under climate change</t>
+  </si>
+  <si>
+    <t>Homero Gárate‐Escamilla</t>
+  </si>
+  <si>
+    <t>The timing of leaf flush in European beech (Fagus sylvatica L.) saplings</t>
+  </si>
+  <si>
+    <t>T. Robson, R. Alía, G. Božič, Jo Clark, Manfred Forsteuter, Dusan Gomory, M. Liesebach, P. Mertens, E. Rasztovits, Martina Zitová, G. Wühlisch</t>
+  </si>
+  <si>
+    <t>yes doy, but not a common garden experiment</t>
+  </si>
+  <si>
+    <t>Differentiation in phenological and physiological traits in European beech (Fagus sylvatica L.)</t>
+  </si>
+  <si>
+    <t>Dusan Gomory1 • L’ubica Ditmarova´2 • Matu´sˇ Hrivna´k1 • Gabriela Jamnicka´2 • Jaroslav Kmet’1 • Diana Krajmerova´1 • Daniel Kurjak1</t>
   </si>
 </sst>
 </file>
@@ -3694,10 +3717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFEDDF9-A7E3-4B1E-8FC5-46B8D81A82AE}">
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5587,6 +5610,74 @@
       </c>
       <c r="E64">
         <v>2012</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C68" t="s">
+        <v>274</v>
+      </c>
+      <c r="D68" t="s">
+        <v>273</v>
+      </c>
+      <c r="E68">
+        <v>2019</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s">
+        <v>17</v>
+      </c>
+      <c r="M68" t="s">
+        <v>39</v>
+      </c>
+      <c r="N68" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C69" t="s">
+        <v>276</v>
+      </c>
+      <c r="D69" t="s">
+        <v>275</v>
+      </c>
+      <c r="E69">
+        <v>2010</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s">
+        <v>17</v>
+      </c>
+      <c r="N69" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C70" t="s">
+        <v>279</v>
+      </c>
+      <c r="D70" t="s">
+        <v>278</v>
+      </c>
+      <c r="E70">
+        <v>2015</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
+        <v>17</v>
+      </c>
+      <c r="N70" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/RawMaterials/data/JournalArticlesAlinaHasLookedAtToDate.xlsx
+++ b/RawMaterials/data/JournalArticlesAlinaHasLookedAtToDate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\RawMaterials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B1E323-6563-49D8-88F2-FEA2ABD0C823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE451C4-BB9C-4C8F-BE2E-00AB658F4B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="1" activeTab="1" xr2:uid="{A8763C87-DFF9-4A08-964B-F5B5ED8150ED}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/RawMaterials/data/JournalArticlesAlinaHasLookedAtToDate.xlsx
+++ b/RawMaterials/data/JournalArticlesAlinaHasLookedAtToDate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\RawMaterials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE451C4-BB9C-4C8F-BE2E-00AB658F4B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF7A34A-6CEA-40D1-9B19-718701E89E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="1" activeTab="1" xr2:uid="{A8763C87-DFF9-4A08-964B-F5B5ED8150ED}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="296">
   <si>
     <t>To document everything I looked at for LA project</t>
   </si>
@@ -912,12 +911,224 @@
   <si>
     <t>Dusan Gomory1 • L’ubica Ditmarova´2 • Matu´sˇ Hrivna´k1 • Gabriela Jamnicka´2 • Jaroslav Kmet’1 • Diana Krajmerova´1 • Daniel Kurjak1</t>
   </si>
+  <si>
+    <t>Continued Dec 14 2022</t>
+  </si>
+  <si>
+    <t>Phenotypic trait variation in a long-term multisite common garden experiment of Scots pine in Scotland</t>
+  </si>
+  <si>
+    <t>Joan Beaton,1 Annika Perry,corresponding author2 Joan Cottrell,3 Glenn Iason,1 Jenni Stockan,1 and Stephen Cavers2</t>
+  </si>
+  <si>
+    <t>does not have Doy, only has BB scores using a 6 point scale</t>
+  </si>
+  <si>
+    <t>The early bud gets the cold: Diverging spring phenology drives exposure to late frost in a Picea mariana [(Mill.) BSP] common garden</t>
+  </si>
+  <si>
+    <t>Claudio Mura, Valentina Buttò, Roberto Silvestro, Annie Deslauriers, Guillaume Charrier, Patricia Raymond, Sergio Rossi</t>
+  </si>
+  <si>
+    <t>the scales might not always be consistent</t>
+  </si>
+  <si>
+    <t>Jessica A. Savage, Thomas Kiecker, Natalie McMann, Daniel Park, Matthew Rothendler, Kennedy Mosher</t>
+  </si>
+  <si>
+    <t>Leaf out time correlates with wood anatomy across large geographic scales and within local communities</t>
+  </si>
+  <si>
+    <t>GDD over wood anatomy, no link to lat</t>
+  </si>
+  <si>
+    <t>Adaptation of white spruce to climatic risk environments in spring: Implications for assisted migration</t>
+  </si>
+  <si>
+    <t>MariahCasmeyAndreasHamannUwe G.Hacke</t>
+  </si>
+  <si>
+    <r>
+      <t>HuanjiongWang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="3"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ShaozhiLin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="3"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JunhuDai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="3"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QuanshengGe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="3"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t>Modeling the effect of adaptation to future climate change on spring phenological trend of European beech (Fagus sylvatica L.)</t>
+  </si>
+  <si>
+    <r>
+      <t>Paul G.Schaberg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="3"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Paula F.Murakami</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="3"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kendra M.Collins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="3"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Christopher F.Hansen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="3"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gary J.Hawley</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="3"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <t>Phenology, cold injury and growth of American chestnut in a Range-Wide provenance test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,6 +1182,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1125,7 +1350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1133,11 +1358,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1154,45 +1375,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1206,6 +1397,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1541,2174 +1736,1849 @@
     </row>
     <row r="4" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="N5" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="44"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="28"/>
     </row>
     <row r="6" spans="1:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="18">
+      <c r="A6" s="15">
         <v>1</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6">
         <v>1987</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6">
         <v>1895</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="19" t="s">
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="22"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="18">
+      <c r="A7" s="15">
         <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7">
         <v>1998</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7">
         <v>1996</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="19" t="s">
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="22"/>
+      <c r="R7" s="17"/>
     </row>
     <row r="8" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="18">
+      <c r="A8" s="15">
         <f t="shared" ref="A8:A56" si="0">A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8">
         <v>1994</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="23" t="s">
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="22"/>
+      <c r="R8" s="17"/>
     </row>
     <row r="9" spans="1:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="18">
+      <c r="A9" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9">
         <v>2007</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9">
         <v>2003</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="19" t="s">
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="22"/>
+      <c r="R9" s="17"/>
     </row>
     <row r="10" spans="1:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="18">
+      <c r="A10" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10">
         <v>2008</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10">
         <v>2003</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="19" t="s">
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="22"/>
+      <c r="R10" s="17"/>
     </row>
     <row r="11" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="18">
+      <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11">
         <v>2013</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="19" t="s">
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="22"/>
+      <c r="R11" s="17"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="18">
+      <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12">
         <v>2013</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="22"/>
+      <c r="R12" s="17"/>
     </row>
     <row r="13" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="18">
+      <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13">
         <v>2018</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="19" t="s">
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="22"/>
+      <c r="R13" s="17"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="18">
+      <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14">
         <v>1965</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14">
         <v>1961</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="19" t="s">
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" t="s">
         <v>58</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="22"/>
+      <c r="R14" s="17"/>
     </row>
     <row r="15" spans="1:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="18">
+      <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15">
         <v>1980</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15">
         <v>1978</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="19" t="s">
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" t="s">
         <v>71</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="22"/>
+      <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" ht="57.9" x14ac:dyDescent="0.6">
-      <c r="A16" s="18">
+      <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16">
         <v>2017</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" t="s">
         <v>80</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" t="s">
         <v>62</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="22"/>
+      <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" ht="43.5" x14ac:dyDescent="0.6">
-      <c r="A17" s="18">
+      <c r="A17" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17">
         <v>2021</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17">
         <v>2013</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="22"/>
+      <c r="R17" s="17"/>
     </row>
     <row r="18" spans="1:18" ht="29.1" x14ac:dyDescent="0.6">
-      <c r="A18" s="18">
+      <c r="A18" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18">
         <v>1993</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="19" t="s">
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" t="s">
         <v>96</v>
       </c>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="22"/>
+      <c r="R18" s="17"/>
     </row>
     <row r="19" spans="1:18" ht="46.8" x14ac:dyDescent="0.6">
-      <c r="A19" s="18">
+      <c r="A19" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19">
         <v>2008</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19">
         <v>2004</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" t="s">
         <v>100</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" t="s">
         <v>96</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="22"/>
+      <c r="R19" s="17"/>
     </row>
     <row r="20" spans="1:18" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A20" s="18">
+      <c r="A20" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20">
         <v>1999</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20">
         <v>1998</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="19" t="s">
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" t="s">
         <v>96</v>
       </c>
-      <c r="M20" s="21" t="s">
+      <c r="M20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="22"/>
+      <c r="R20" s="17"/>
     </row>
     <row r="21" spans="1:18" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A21" s="18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="15">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21">
         <v>2011</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" t="s">
         <v>62</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="M21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="22"/>
+      <c r="R21" s="17"/>
     </row>
     <row r="22" spans="1:18" ht="43.5" x14ac:dyDescent="0.6">
-      <c r="A22" s="18">
+      <c r="A22" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22">
         <v>2021</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="19" t="s">
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" t="s">
         <v>32</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="K22" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" t="s">
         <v>62</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="M22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="22"/>
+      <c r="R22" s="17"/>
     </row>
     <row r="23" spans="1:18" ht="43.5" x14ac:dyDescent="0.6">
-      <c r="A23" s="18">
+      <c r="A23" s="15">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23">
         <v>2020</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23">
         <v>2019</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="19" t="s">
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="K23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" t="s">
         <v>62</v>
       </c>
-      <c r="M23" s="21" t="s">
+      <c r="M23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="22"/>
+      <c r="R23" s="17"/>
     </row>
     <row r="24" spans="1:18" ht="43.5" x14ac:dyDescent="0.6">
-      <c r="A24" s="18">
+      <c r="A24" s="15">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24">
         <v>2012</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" t="s">
         <v>86</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" t="s">
         <v>62</v>
       </c>
-      <c r="M24" s="28" t="s">
+      <c r="M24" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="N24" s="23" t="s">
+      <c r="N24" t="s">
         <v>229</v>
       </c>
-      <c r="O24" s="23"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="22"/>
+      <c r="R24" s="17"/>
     </row>
     <row r="25" spans="1:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="18">
+      <c r="A25" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25">
         <v>1979</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="28" t="s">
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="N25" s="23" t="s">
+      <c r="N25" t="s">
         <v>231</v>
       </c>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="22"/>
+      <c r="R25" s="17"/>
     </row>
     <row r="26" spans="1:18" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="18">
+      <c r="A26" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" t="s">
         <v>225</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26">
         <v>2007</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19" t="s">
+      <c r="G26" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19" t="s">
+      <c r="L26" t="s">
         <v>62</v>
       </c>
-      <c r="M26" s="28" t="s">
+      <c r="M26" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="N26" s="19" t="s">
+      <c r="N26" t="s">
         <v>130</v>
       </c>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="22"/>
+      <c r="R26" s="17"/>
     </row>
     <row r="27" spans="1:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="18">
+      <c r="A27" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" t="s">
         <v>234</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27">
         <v>1996</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23" t="s">
+      <c r="G27" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" s="23" t="s">
+      <c r="M27" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" t="s">
         <v>122</v>
       </c>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="22"/>
+      <c r="R27" s="17"/>
     </row>
     <row r="28" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="18">
+      <c r="A28" s="15">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" t="s">
         <v>235</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28">
         <v>2018</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="22"/>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R28" s="17"/>
     </row>
     <row r="29" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="18">
+      <c r="A29" s="15">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" t="s">
         <v>236</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29">
         <v>2019</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N29" s="23" t="s">
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" t="s">
         <v>126</v>
       </c>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="22"/>
+      <c r="R29" s="17"/>
     </row>
     <row r="30" spans="1:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="18">
+      <c r="A30" s="15">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30">
         <v>1978</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="23" t="s">
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
         <v>37</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="23" t="s">
+      <c r="L30" t="s">
         <v>21</v>
       </c>
-      <c r="M30" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N30" s="23" t="s">
+      <c r="M30" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" t="s">
         <v>119</v>
       </c>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="22"/>
+      <c r="R30" s="17"/>
     </row>
     <row r="31" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="18">
+      <c r="A31" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31">
         <v>1995</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23" t="s">
+      <c r="G31" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23" t="s">
+      <c r="L31" t="s">
         <v>62</v>
       </c>
-      <c r="M31" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N31" s="23" t="s">
+      <c r="M31" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" t="s">
         <v>128</v>
       </c>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="22"/>
+      <c r="R31" s="17"/>
     </row>
     <row r="32" spans="1:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="18">
+      <c r="A32" s="15">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" t="s">
         <v>220</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32">
         <v>2014</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23" t="s">
+      <c r="G32" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23" t="s">
+      <c r="L32" t="s">
         <v>62</v>
       </c>
-      <c r="M32" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N32" s="23" t="s">
+      <c r="M32" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" t="s">
         <v>131</v>
       </c>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="22"/>
+      <c r="R32" s="17"/>
     </row>
     <row r="33" spans="1:18" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="18">
+      <c r="A33" s="15">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" t="s">
         <v>184</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33">
         <v>2013</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23" t="s">
+      <c r="G33" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23" t="s">
+      <c r="L33" t="s">
         <v>62</v>
       </c>
-      <c r="M33" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N33" s="30" t="s">
+      <c r="M33" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="33"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="20"/>
     </row>
     <row r="34" spans="1:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="18">
+      <c r="A34" s="15">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" t="s">
         <v>171</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34">
         <v>2017</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19" t="s">
+      <c r="L34" t="s">
         <v>62</v>
       </c>
-      <c r="M34" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N34" s="34" t="s">
+      <c r="M34" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="33"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="20"/>
     </row>
     <row r="35" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="18">
+      <c r="A35" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" t="s">
         <v>181</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35">
         <v>2006</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19" t="s">
+      <c r="G35" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19" t="s">
+      <c r="L35" t="s">
         <v>62</v>
       </c>
-      <c r="M35" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N35" s="19" t="s">
+      <c r="M35" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" t="s">
         <v>159</v>
       </c>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="22"/>
+      <c r="R35" s="17"/>
     </row>
     <row r="36" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="18">
+      <c r="A36" s="15">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36">
         <v>2014</v>
       </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19" t="s">
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" t="s">
         <v>62</v>
       </c>
-      <c r="M36" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N36" s="19" t="s">
+      <c r="M36" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N36" t="s">
         <v>160</v>
       </c>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="22"/>
+      <c r="R36" s="17"/>
     </row>
     <row r="37" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="18">
+      <c r="A37" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" t="s">
         <v>175</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37">
         <v>2015</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19" t="s">
+      <c r="G37" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19" t="s">
+      <c r="L37" t="s">
         <v>62</v>
       </c>
-      <c r="M37" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N37" s="35" t="s">
+      <c r="M37" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N37" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="22"/>
+      <c r="R37" s="17"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="18">
+      <c r="A38" s="15">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" t="s">
         <v>186</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38">
         <v>2004</v>
       </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19" t="s">
+      <c r="G38" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19" t="s">
+      <c r="L38" t="s">
         <v>62</v>
       </c>
-      <c r="M38" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N38" s="35" t="s">
+      <c r="M38" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N38" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="22"/>
+      <c r="R38" s="17"/>
     </row>
     <row r="39" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="18">
+      <c r="A39" s="15">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39">
         <v>2016</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19" t="s">
+      <c r="G39" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19" t="s">
+      <c r="L39" t="s">
         <v>62</v>
       </c>
-      <c r="M39" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N39" s="35" t="s">
+      <c r="M39" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N39" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="22"/>
+      <c r="R39" s="17"/>
     </row>
     <row r="40" spans="1:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="18">
+      <c r="A40" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" t="s">
         <v>233</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40">
         <v>2015</v>
       </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19" t="s">
+      <c r="G40" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19" t="s">
+      <c r="L40" t="s">
         <v>62</v>
       </c>
-      <c r="M40" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N40" s="35" t="s">
+      <c r="M40" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N40" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="22"/>
+      <c r="R40" s="17"/>
     </row>
     <row r="41" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="18">
+      <c r="A41" s="15">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" t="s">
         <v>156</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41">
         <v>2017</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19" t="s">
+      <c r="G41" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19" t="s">
+      <c r="L41" t="s">
         <v>62</v>
       </c>
-      <c r="M41" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N41" s="35" t="s">
+      <c r="M41" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N41" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="22"/>
+      <c r="R41" s="17"/>
     </row>
     <row r="42" spans="1:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="18">
+      <c r="A42" s="15">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42">
         <v>2002</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19" t="s">
+      <c r="G42" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19" t="s">
+      <c r="L42" t="s">
         <v>62</v>
       </c>
-      <c r="M42" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N42" s="35" t="s">
+      <c r="M42" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N42" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="22"/>
+      <c r="R42" s="17"/>
     </row>
     <row r="43" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="18">
+      <c r="A43" s="15">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" t="s">
         <v>203</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43">
         <v>1983</v>
       </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19" t="s">
+      <c r="L43" t="s">
         <v>96</v>
       </c>
-      <c r="M43" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N43" s="19" t="s">
+      <c r="M43" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N43" t="s">
         <v>166</v>
       </c>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="22"/>
+      <c r="R43" s="17"/>
     </row>
     <row r="44" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="18">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B44" s="19" t="s">
+      <c r="A44" s="15">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" t="s">
         <v>199</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44">
         <v>1997</v>
       </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19" t="s">
+      <c r="L44" t="s">
         <v>204</v>
       </c>
-      <c r="M44" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N44" s="19" t="s">
+      <c r="M44" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N44" t="s">
         <v>166</v>
       </c>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="22"/>
+      <c r="R44" s="17"/>
     </row>
     <row r="45" spans="1:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="18">
+      <c r="A45" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" t="s">
         <v>143</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" t="s">
         <v>201</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45">
         <v>1997</v>
       </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19" t="s">
+      <c r="L45" t="s">
         <v>205</v>
       </c>
-      <c r="M45" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N45" s="19" t="s">
+      <c r="M45" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N45" t="s">
         <v>166</v>
       </c>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="22"/>
+      <c r="R45" s="17"/>
     </row>
     <row r="46" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="18">
+      <c r="A46" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" t="s">
         <v>146</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" t="s">
         <v>197</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46">
         <v>2011</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19" t="s">
+      <c r="L46" t="s">
         <v>206</v>
       </c>
-      <c r="M46" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N46" s="19" t="s">
+      <c r="M46" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N46" t="s">
         <v>166</v>
       </c>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="22"/>
+      <c r="R46" s="17"/>
     </row>
     <row r="47" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="18">
+      <c r="A47" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" t="s">
         <v>145</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" t="s">
         <v>193</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47">
         <v>2006</v>
       </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19" t="s">
+      <c r="L47" t="s">
         <v>207</v>
       </c>
-      <c r="M47" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N47" s="19" t="s">
+      <c r="M47" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N47" t="s">
         <v>166</v>
       </c>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="22"/>
+      <c r="R47" s="17"/>
     </row>
     <row r="48" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="18">
+      <c r="A48" s="15">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48">
         <v>2009</v>
       </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19" t="s">
+      <c r="G48" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19" t="s">
+      <c r="L48" t="s">
         <v>208</v>
       </c>
-      <c r="M48" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N48" s="19" t="s">
+      <c r="M48" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N48" t="s">
         <v>166</v>
       </c>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="22"/>
+      <c r="R48" s="17"/>
     </row>
     <row r="49" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="18">
+      <c r="A49" s="15">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19" t="s">
+      <c r="C49" t="s">
         <v>191</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49">
         <v>2009</v>
       </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19" t="s">
+      <c r="G49" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19" t="s">
+      <c r="L49" t="s">
         <v>62</v>
       </c>
-      <c r="M49" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N49" s="19" t="s">
+      <c r="M49" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N49" t="s">
         <v>166</v>
       </c>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="22"/>
+      <c r="R49" s="17"/>
     </row>
     <row r="50" spans="1:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="18">
+      <c r="A50" s="15">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19" t="s">
+      <c r="C50" t="s">
         <v>237</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50">
         <v>2010</v>
       </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19" t="s">
+      <c r="G50" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19" t="s">
+      <c r="L50" t="s">
         <v>62</v>
       </c>
-      <c r="M50" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N50" s="19" t="s">
+      <c r="M50" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N50" t="s">
         <v>166</v>
       </c>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="22"/>
+      <c r="R50" s="17"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="18">
+      <c r="A51" s="15">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" t="s">
         <v>218</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51">
         <v>2007</v>
       </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19" t="s">
+      <c r="G51" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19" t="s">
+      <c r="L51" t="s">
         <v>62</v>
       </c>
-      <c r="M51" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N51" s="19" t="s">
+      <c r="M51" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N51" t="s">
         <v>227</v>
       </c>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="22"/>
+      <c r="R51" s="17"/>
     </row>
     <row r="52" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="18">
+      <c r="A52" s="15">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" t="s">
         <v>221</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52">
         <v>2020</v>
       </c>
-      <c r="F52" s="19"/>
-      <c r="G52" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19" t="s">
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" t="s">
         <v>62</v>
       </c>
-      <c r="M52" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N52" s="19" t="s">
+      <c r="M52" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N52" t="s">
         <v>227</v>
       </c>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="22"/>
+      <c r="R52" s="17"/>
     </row>
     <row r="53" spans="1:18" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="18">
+      <c r="A53" s="15">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" t="s">
         <v>223</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53">
         <v>2016</v>
       </c>
-      <c r="F53" s="19"/>
-      <c r="G53" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19" t="s">
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" t="s">
         <v>62</v>
       </c>
-      <c r="M53" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N53" s="19" t="s">
+      <c r="M53" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N53" t="s">
         <v>228</v>
       </c>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="22"/>
+      <c r="R53" s="17"/>
     </row>
     <row r="54" spans="1:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="18">
+      <c r="A54" s="15">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" t="s">
         <v>214</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54">
         <v>1999</v>
       </c>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19" t="s">
+      <c r="G54" t="s">
         <v>17</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19" t="s">
+      <c r="L54" t="s">
         <v>62</v>
       </c>
-      <c r="M54" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N54" s="19" t="s">
+      <c r="M54" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N54" t="s">
         <v>227</v>
       </c>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="22"/>
+      <c r="R54" s="17"/>
     </row>
     <row r="55" spans="1:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="18">
+      <c r="A55" s="15">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" t="s">
         <v>139</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" t="s">
         <v>212</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55">
         <v>2010</v>
       </c>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19" t="s">
+      <c r="G55" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19" t="s">
+      <c r="L55" t="s">
         <v>62</v>
       </c>
-      <c r="M55" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N55" s="19" t="s">
+      <c r="M55" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N55" t="s">
         <v>227</v>
       </c>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="22"/>
+      <c r="R55" s="17"/>
     </row>
     <row r="56" spans="1:18" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A56" s="18">
+      <c r="A56" s="15">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="E56" s="37">
+      <c r="E56" s="21">
         <v>2019</v>
       </c>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37" t="s">
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="M56" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="N56" s="37" t="s">
+      <c r="M56" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N56" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="40"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3718,10 +3588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFEDDF9-A7E3-4B1E-8FC5-46B8D81A82AE}">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="N71" sqref="N71"/>
+    <sheetView tabSelected="1" topLeftCell="C68" workbookViewId="0">
+      <selection activeCell="S82" sqref="S82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3783,7 +3653,7 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E6">
@@ -3825,7 +3695,7 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
@@ -3861,40 +3731,40 @@
         <f t="shared" ref="A8:A29" si="0">A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>1994</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3909,7 +3779,7 @@
       <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E9">
@@ -3951,7 +3821,7 @@
       <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E10">
@@ -3993,7 +3863,7 @@
       <c r="C11" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E11">
@@ -4035,7 +3905,7 @@
       <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E12">
@@ -4077,7 +3947,7 @@
       <c r="C13" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E13">
@@ -4119,7 +3989,7 @@
       <c r="C14" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E14">
@@ -4161,7 +4031,7 @@
       <c r="C15" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E15">
@@ -4203,7 +4073,7 @@
       <c r="C16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E16" s="3">
@@ -4231,7 +4101,7 @@
       <c r="C17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>77</v>
       </c>
       <c r="E17">
@@ -4273,7 +4143,7 @@
       <c r="C18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="3">
@@ -4315,7 +4185,7 @@
       <c r="C19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>89</v>
       </c>
       <c r="E19">
@@ -4357,7 +4227,7 @@
       <c r="C20" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E20">
@@ -4399,7 +4269,7 @@
       <c r="C21" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>99</v>
       </c>
       <c r="E21">
@@ -4441,7 +4311,7 @@
       <c r="C22" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>104</v>
       </c>
       <c r="E22">
@@ -4477,13 +4347,13 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" t="s">
         <v>105</v>
       </c>
       <c r="C23" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E23">
@@ -4525,7 +4395,7 @@
       <c r="C24" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>112</v>
       </c>
       <c r="E24">
@@ -4567,7 +4437,7 @@
       <c r="C25" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E25">
@@ -4603,24 +4473,24 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="17" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
         <v>1996</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12" t="s">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10" t="s">
         <v>39</v>
       </c>
       <c r="N26" t="s">
@@ -4632,24 +4502,24 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="17" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
         <v>2018</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12" t="s">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4658,24 +4528,24 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="17" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="10">
         <v>2019</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12" t="s">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10" t="s">
         <v>39</v>
       </c>
       <c r="N28" t="s">
@@ -4687,40 +4557,40 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="10">
         <v>1978</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="12" t="s">
+      <c r="G29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="10" t="s">
         <v>39</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -4734,7 +4604,7 @@
       <c r="C30" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>188</v>
       </c>
       <c r="E30">
@@ -4754,10 +4624,10 @@
       <c r="B31" t="s">
         <v>136</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>224</v>
       </c>
       <c r="E31">
@@ -4780,10 +4650,10 @@
       <c r="C32" t="s">
         <v>220</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="10">
         <v>2014</v>
       </c>
       <c r="L32" t="s">
@@ -4800,10 +4670,10 @@
       <c r="B33" t="s">
         <v>148</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>183</v>
       </c>
       <c r="E33">
@@ -4815,13 +4685,13 @@
       <c r="M33" t="s">
         <v>39</v>
       </c>
-      <c r="N33" s="13" t="s">
+      <c r="N33" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
     </row>
     <row r="34" spans="2:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
@@ -4830,7 +4700,7 @@
       <c r="C34" t="s">
         <v>171</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>169</v>
       </c>
       <c r="E34">
@@ -4842,13 +4712,13 @@
       <c r="M34" t="s">
         <v>39</v>
       </c>
-      <c r="N34" s="13" t="s">
+      <c r="N34" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
     </row>
     <row r="35" spans="2:18" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
@@ -4857,7 +4727,7 @@
       <c r="C35" t="s">
         <v>181</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>182</v>
       </c>
       <c r="E35">
@@ -4880,7 +4750,7 @@
       <c r="C36" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>180</v>
       </c>
       <c r="E36">
@@ -4900,10 +4770,10 @@
       <c r="B37" t="s">
         <v>152</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>174</v>
       </c>
       <c r="E37">
@@ -4915,7 +4785,7 @@
       <c r="M37" t="s">
         <v>39</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="N37" s="13" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4923,10 +4793,10 @@
       <c r="B38" t="s">
         <v>153</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>185</v>
       </c>
       <c r="E38">
@@ -4938,7 +4808,7 @@
       <c r="M38" t="s">
         <v>39</v>
       </c>
-      <c r="N38" s="15" t="s">
+      <c r="N38" s="13" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4949,7 +4819,7 @@
       <c r="C39" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="7" t="s">
         <v>176</v>
       </c>
       <c r="E39">
@@ -4961,7 +4831,7 @@
       <c r="M39" t="s">
         <v>39</v>
       </c>
-      <c r="N39" s="15" t="s">
+      <c r="N39" s="13" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4969,7 +4839,8 @@
       <c r="B40" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="30"/>
+      <c r="D40" s="7" t="s">
         <v>178</v>
       </c>
       <c r="E40">
@@ -4981,7 +4852,7 @@
       <c r="M40" t="s">
         <v>39</v>
       </c>
-      <c r="N40" s="15" t="s">
+      <c r="N40" s="13" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4992,7 +4863,7 @@
       <c r="C41" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>172</v>
       </c>
       <c r="E41">
@@ -5004,7 +4875,7 @@
       <c r="M41" t="s">
         <v>39</v>
       </c>
-      <c r="N41" s="15" t="s">
+      <c r="N41" s="13" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5015,7 +4886,7 @@
       <c r="C42" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>167</v>
       </c>
       <c r="E42">
@@ -5027,7 +4898,7 @@
       <c r="M42" t="s">
         <v>39</v>
       </c>
-      <c r="N42" s="15" t="s">
+      <c r="N42" s="32" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5035,10 +4906,10 @@
       <c r="B43" t="s">
         <v>134</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>215</v>
       </c>
       <c r="E43">
@@ -5061,7 +4932,7 @@
       <c r="C44" t="s">
         <v>191</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>189</v>
       </c>
       <c r="E44">
@@ -5084,7 +4955,7 @@
       <c r="C45" t="s">
         <v>203</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>202</v>
       </c>
       <c r="E45">
@@ -5107,7 +4978,7 @@
       <c r="C46" t="s">
         <v>199</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>198</v>
       </c>
       <c r="E46">
@@ -5130,7 +5001,7 @@
       <c r="C47" t="s">
         <v>201</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>200</v>
       </c>
       <c r="E47">
@@ -5153,7 +5024,7 @@
       <c r="C48" t="s">
         <v>197</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="7" t="s">
         <v>196</v>
       </c>
       <c r="E48">
@@ -5176,7 +5047,7 @@
       <c r="C49" t="s">
         <v>193</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>194</v>
       </c>
       <c r="E49">
@@ -5196,10 +5067,10 @@
       <c r="B50" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>190</v>
       </c>
       <c r="E50">
@@ -5222,7 +5093,7 @@
       <c r="C51" t="s">
         <v>218</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>226</v>
       </c>
       <c r="E51">
@@ -5245,7 +5116,7 @@
       <c r="C52" t="s">
         <v>221</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>222</v>
       </c>
       <c r="E52">
@@ -5268,7 +5139,7 @@
       <c r="C53" t="s">
         <v>223</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>219</v>
       </c>
       <c r="E53">
@@ -5291,7 +5162,7 @@
       <c r="C54" t="s">
         <v>214</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="7" t="s">
         <v>213</v>
       </c>
       <c r="E54">
@@ -5314,7 +5185,7 @@
       <c r="C55" t="s">
         <v>212</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="7" t="s">
         <v>211</v>
       </c>
       <c r="E55">
@@ -5337,7 +5208,7 @@
       <c r="C56" t="s">
         <v>210</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="7" t="s">
         <v>209</v>
       </c>
       <c r="E56">
@@ -5354,10 +5225,10 @@
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="30" t="s">
         <v>240</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -5413,7 +5284,7 @@
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="30" t="s">
         <v>249</v>
       </c>
       <c r="C59" t="s">
@@ -5454,7 +5325,7 @@
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="30" t="s">
         <v>253</v>
       </c>
       <c r="C60" t="s">
@@ -5565,40 +5436,40 @@
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="C63" s="47" t="s">
+      <c r="C63" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="D63" s="47" t="s">
+      <c r="D63" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="E63" s="47">
+      <c r="E63" s="31">
         <v>2012</v>
       </c>
-      <c r="F63" s="47" t="s">
+      <c r="F63" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="G63" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="47" t="s">
+      <c r="G63" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="J63" s="47" t="s">
+      <c r="J63" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="K63" s="47" t="s">
+      <c r="K63" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="L63" s="47" t="s">
+      <c r="L63" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="M63" s="47" t="s">
+      <c r="M63" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5613,12 +5484,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C68" t="s">
         <v>274</v>
       </c>
@@ -5641,7 +5512,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C69" t="s">
         <v>276</v>
       </c>
@@ -5661,7 +5532,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" t="s">
         <v>279</v>
       </c>
@@ -5679,6 +5550,155 @@
       </c>
       <c r="N70" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="C74" t="s">
+        <v>282</v>
+      </c>
+      <c r="D74" t="s">
+        <v>281</v>
+      </c>
+      <c r="E74">
+        <v>2022</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s">
+        <v>17</v>
+      </c>
+      <c r="M74" t="s">
+        <v>39</v>
+      </c>
+      <c r="N74" s="32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="C75" t="s">
+        <v>285</v>
+      </c>
+      <c r="D75" t="s">
+        <v>284</v>
+      </c>
+      <c r="E75">
+        <v>2022</v>
+      </c>
+      <c r="G75" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s">
+        <v>16</v>
+      </c>
+      <c r="M75" t="s">
+        <v>39</v>
+      </c>
+      <c r="N75" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="T75" s="33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="C76" t="s">
+        <v>287</v>
+      </c>
+      <c r="D76" t="s">
+        <v>288</v>
+      </c>
+      <c r="E76">
+        <v>2022</v>
+      </c>
+      <c r="G76" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" t="s">
+        <v>39</v>
+      </c>
+      <c r="N76" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="C77" t="s">
+        <v>291</v>
+      </c>
+      <c r="D77" t="s">
+        <v>290</v>
+      </c>
+      <c r="E77">
+        <v>2022</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" t="s">
+        <v>39</v>
+      </c>
+      <c r="N77" s="32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="C78" t="s">
+        <v>292</v>
+      </c>
+      <c r="D78" t="s">
+        <v>293</v>
+      </c>
+      <c r="E78">
+        <v>2022</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
+        <v>17</v>
+      </c>
+      <c r="M78" t="s">
+        <v>39</v>
+      </c>
+      <c r="N78" s="32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="C79" t="s">
+        <v>294</v>
+      </c>
+      <c r="D79" t="s">
+        <v>295</v>
+      </c>
+      <c r="E79">
+        <v>2022</v>
+      </c>
+      <c r="G79" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s">
+        <v>16</v>
+      </c>
+      <c r="M79" t="s">
+        <v>39</v>
+      </c>
+      <c r="N79" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="T79" s="33" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
